--- a/db/No_disponibilidad_docente.xlsx
+++ b/db/No_disponibilidad_docente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\andrew\Documents\Proyecto_Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E2863B-4100-4FCA-9A77-13A00B7B5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59137A5-4B4D-4780-89DF-4AF56B85F072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C036F83F-0B09-49A3-BEF0-328E35AFD5FE}"/>
+    <workbookView xWindow="3384" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{C036F83F-0B09-49A3-BEF0-328E35AFD5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>profesor_id</t>
   </si>
@@ -87,13 +87,91 @@
   </si>
   <si>
     <t>Viernes</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +199,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0290EFD-4554-40C6-8C19-4ADD8ACF8002}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,6 +617,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2">
         <v>1001</v>
       </c>
@@ -550,6 +637,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
       <c r="B3">
         <v>1001</v>
       </c>
@@ -567,6 +657,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4">
         <v>1001</v>
       </c>
@@ -584,6 +677,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
       <c r="B5">
         <v>1001</v>
       </c>
@@ -601,6 +697,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
       <c r="B6">
         <v>1001</v>
       </c>
@@ -618,6 +717,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
       <c r="B7">
         <v>1001</v>
       </c>
@@ -635,6 +737,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
       <c r="B8">
         <v>1001</v>
       </c>
@@ -652,6 +757,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
       <c r="B9">
         <v>1001</v>
       </c>
@@ -669,6 +777,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
       <c r="B10">
         <v>1005</v>
       </c>
@@ -686,6 +797,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
       <c r="B11">
         <v>1005</v>
       </c>
@@ -703,6 +817,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
       <c r="B12">
         <v>1005</v>
       </c>
@@ -720,6 +837,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
       <c r="B13">
         <v>1005</v>
       </c>
@@ -737,6 +857,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
       <c r="B14">
         <v>1005</v>
       </c>
@@ -754,6 +877,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
       <c r="B15">
         <v>1005</v>
       </c>
@@ -771,6 +897,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
       <c r="B16">
         <v>1005</v>
       </c>
@@ -787,7 +916,10 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
       <c r="B17">
         <v>1005</v>
       </c>
@@ -804,7 +936,10 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
       <c r="B18">
         <v>1005</v>
       </c>
@@ -821,7 +956,10 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
       <c r="B19">
         <v>1005</v>
       </c>
@@ -838,7 +976,10 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
       <c r="B20">
         <v>1005</v>
       </c>
@@ -855,7 +996,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
       <c r="B21">
         <v>1005</v>
       </c>
@@ -872,7 +1016,10 @@
         <v>0.79166666666666596</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
       <c r="B22">
         <v>1005</v>
       </c>
@@ -889,7 +1036,10 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
       <c r="B23">
         <v>1005</v>
       </c>
@@ -906,7 +1056,10 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
       <c r="B24">
         <v>1005</v>
       </c>
@@ -923,7 +1076,10 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
       <c r="B25">
         <v>1005</v>
       </c>
@@ -940,7 +1096,10 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
       <c r="B26">
         <v>1005</v>
       </c>
@@ -957,7 +1116,10 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
       <c r="B27">
         <v>1005</v>
       </c>
@@ -975,6 +1137,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>